--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2170.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2170.xlsx
@@ -354,7 +354,7 @@
         <v>2.567092314789282</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.412613530603482</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2170.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2170.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.319970151797369</v>
+        <v>1.213374376296997</v>
       </c>
       <c r="B1">
-        <v>2.567092314789282</v>
+        <v>2.391945600509644</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.412613530603482</v>
+        <v>1.417901754379272</v>
       </c>
       <c r="E1">
-        <v>0.6625548440909063</v>
+        <v>0.9105518460273743</v>
       </c>
     </row>
   </sheetData>
